--- a/storage/app/repository/HDS.fr.xlsx
+++ b/storage/app/repository/HDS.fr.xlsx
@@ -746,7 +746,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -829,8 +829,8 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
